--- a/mainadminhtml/samplefile/SEBI/formc.xlsx
+++ b/mainadminhtml/samplefile/SEBI/formc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\drreddys\mainadminhtml\samplefile\SEBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\future\mainadminhtml\samplefile\formc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="4350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,40 +24,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Created Date</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>CIN/DIN</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Contact No</t>
-  </si>
-  <si>
-    <t>Category Of Person</t>
-  </si>
-  <si>
-    <t>Sr.No</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Category of Person (Promote rs/ KMP / Directors/ immediat e relatives/ others etc.)</t>
+  </si>
+  <si>
+    <t>Securities held prior to acquisition/disposal  (Type of security (For eg. –Shares, Warrants, Convertible Debentures etc.))</t>
+  </si>
+  <si>
+    <t>Securities held prior to acquisition/disposal (No)</t>
+  </si>
+  <si>
+    <t>Securities acquired/Disposed   (Type of security (For eg. – Shares,Warrants, Convertible Debentures etc.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name, P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AN No., CIN/DIN, &amp; address of Promoter/ Employee / Director with contact nos</t>
+    </r>
+  </si>
+  <si>
+    <t>Securities acquired/Disposed (NO)</t>
+  </si>
+  <si>
+    <t>Securities acquired/Disposed(Value)</t>
+  </si>
+  <si>
+    <t>Securities acquired/Disposed (Transaction Type (Buy/ Sale/ Pledge / Revoke/ Invoke))</t>
+  </si>
+  <si>
+    <t>% Securities held post acquisition/disposal(Type of security (For eg. – Shares, Warrants, Convertible Debentures etc.))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> % Securities held post acquisition/disposal (No. and % of shareholding)</t>
+  </si>
+  <si>
+    <t>Date of allotment advice/ acquisition of shares/ sale of shares specify (FROM)</t>
+  </si>
+  <si>
+    <t>Date of allotment advice/ acquisition of shares/ sale of shares specify (To)</t>
+  </si>
+  <si>
+    <t>Date of intimation to company</t>
+  </si>
+  <si>
+    <t>Mode of acquisition (market purchase/pu blic rights/ preferential offer / off market/ Inter-se transfer etc.</t>
+  </si>
+  <si>
+    <t>Type Of Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract Specification 
+</t>
+  </si>
+  <si>
+    <t>Buy(Notional Value)</t>
+  </si>
+  <si>
+    <t>Buy(Number of units (contracts * lot size))</t>
+  </si>
+  <si>
+    <t>Sell (Notional Value )</t>
+  </si>
+  <si>
+    <t>Sell (Number of units (contracts * lot size))</t>
+  </si>
+  <si>
+    <t>Exchange on which the trade was executed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,8 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,25 +440,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="93" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" customWidth="1"/>
+    <col min="18" max="18" width="39.7109375" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" customWidth="1"/>
+    <col min="20" max="20" width="39" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -398,16 +488,56 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>